--- a/报告.xlsx
+++ b/报告.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="EAROU8VOSKAM99I7detail" sheetId="2" r:id="rId2"/>
+    <sheet name="crash" sheetId="2" r:id="rId2"/>
+    <sheet name="EAROU8VOSKAM99I7detail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -77,7 +78,7 @@
     <t>OPPO_OPPO_4.4</t>
   </si>
   <si>
-    <t>4核</t>
+    <t>2核</t>
   </si>
   <si>
     <t>2917M</t>
@@ -89,19 +90,19 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>56秒</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>102M</t>
-  </si>
-  <si>
-    <t>36M</t>
+    <t>69秒</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>98M</t>
+  </si>
+  <si>
+    <t>35M</t>
   </si>
   <si>
     <t>60</t>
@@ -111,6 +112,32 @@
   </si>
   <si>
     <t>1KB</t>
+  </si>
+  <si>
+    <t>0KB</t>
+  </si>
+  <si>
+    <t>崩溃统计日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANR in cn.wps.moffice_eng:pushservice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Exception from procrank:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.io.IOException: Error running exec(). Command: [procrank] Working Directory: null Environment: null
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  at com.android.server.am.ANRManager$AnrDumpMgr.dumpAnrDebugInfoLocked(SourceFile:964)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  at com.android.server.am.ANRManager$AnrDumpMgr.dumpAnrDebugInfo(SourceFile:832)
+</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -238,60 +265,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$A$1:$A$17</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$A$1:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,60 +394,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$B$1:$B$17</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$B$1:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,10 +523,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$D$1:$D$19</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$D$1:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -564,15 +573,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -658,10 +658,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$C$1:$C$17</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$C$1:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -702,15 +702,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -796,60 +787,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$E$1:$E$17</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$E$1:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4782</c:v>
+                  <c:v>4891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4782</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4783</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4783</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4783</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4783</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4783</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4783</c:v>
+                  <c:v>4893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4783</c:v>
+                  <c:v>4893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4783</c:v>
+                  <c:v>4894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4783</c:v>
+                  <c:v>4894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4784</c:v>
+                  <c:v>4894</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4784</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4784</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4784</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4784</c:v>
+                  <c:v>4894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,60 +916,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$F$1:$F$17</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$F$1:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>292</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>292</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>292</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,13 +1632,13 @@
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1"/>
@@ -1688,7 +1661,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1704,30 +1720,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
@@ -1736,18 +1752,18 @@
         <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>4782</v>
+        <v>4891</v>
       </c>
       <c r="F2" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -1756,18 +1772,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>4782</v>
+        <v>4892</v>
       </c>
       <c r="F3" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -1776,18 +1792,18 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>4783</v>
+        <v>4892</v>
       </c>
       <c r="F4" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -1796,18 +1812,18 @@
         <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>4783</v>
+        <v>4892</v>
       </c>
       <c r="F5" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
@@ -1816,18 +1832,18 @@
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <v>4783</v>
+        <v>4892</v>
       </c>
       <c r="F6" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
@@ -1836,18 +1852,18 @@
         <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>4783</v>
+        <v>4892</v>
       </c>
       <c r="F7" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
@@ -1856,18 +1872,18 @@
         <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>4783</v>
+        <v>4892</v>
       </c>
       <c r="F8" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
@@ -1876,18 +1892,18 @@
         <v>100</v>
       </c>
       <c r="E9" s="2">
-        <v>4783</v>
+        <v>4893</v>
       </c>
       <c r="F9" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
@@ -1896,10 +1912,10 @@
         <v>100</v>
       </c>
       <c r="E10" s="2">
-        <v>4783</v>
+        <v>4893</v>
       </c>
       <c r="F10" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1907,7 +1923,7 @@
         <v>-0</v>
       </c>
       <c r="B11" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
@@ -1916,18 +1932,18 @@
         <v>100</v>
       </c>
       <c r="E11" s="2">
-        <v>4783</v>
+        <v>4894</v>
       </c>
       <c r="F11" s="2">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2">
         <v>60</v>
@@ -1936,18 +1952,18 @@
         <v>100</v>
       </c>
       <c r="E12" s="2">
-        <v>4783</v>
+        <v>4894</v>
       </c>
       <c r="F12" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
@@ -1956,18 +1972,18 @@
         <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>4784</v>
+        <v>4894</v>
       </c>
       <c r="F13" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2">
         <v>60</v>
@@ -1976,79 +1992,19 @@
         <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>4784</v>
+        <v>4894</v>
       </c>
       <c r="F14" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>-0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2">
-        <v>60</v>
-      </c>
       <c r="D15" s="2">
         <v>100</v>
       </c>
-      <c r="E15" s="2">
-        <v>4784</v>
-      </c>
-      <c r="F15" s="2">
-        <v>292</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2">
-        <v>102</v>
-      </c>
-      <c r="C16" s="2">
-        <v>60</v>
-      </c>
       <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4784</v>
-      </c>
-      <c r="F16" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>-0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4784</v>
-      </c>
-      <c r="F17" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="D19" s="2">
         <v>100</v>
       </c>
     </row>

--- a/报告.xlsx
+++ b/报告.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="crash" sheetId="2" r:id="rId2"/>
-    <sheet name="EAROU8VOSKAM99I7detail" sheetId="3" r:id="rId3"/>
+    <sheet name="0123456789ABCDEFdetail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -75,34 +74,34 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>OPPO_OPPO_4.4</t>
+    <t>es651_alps_4.4</t>
   </si>
   <si>
     <t>2核</t>
   </si>
   <si>
-    <t>2917M</t>
-  </si>
-  <si>
-    <t>1080x1920</t>
+    <t>970M</t>
+  </si>
+  <si>
+    <t>1024x600</t>
   </si>
   <si>
     <t>wifi</t>
   </si>
   <si>
-    <t>69秒</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>98M</t>
-  </si>
-  <si>
-    <t>35M</t>
+    <t>22秒</t>
+  </si>
+  <si>
+    <t>165%</t>
+  </si>
+  <si>
+    <t>120%</t>
+  </si>
+  <si>
+    <t>101M</t>
+  </si>
+  <si>
+    <t>105M</t>
   </si>
   <si>
     <t>60</t>
@@ -112,32 +111,6 @@
   </si>
   <si>
     <t>1KB</t>
-  </si>
-  <si>
-    <t>0KB</t>
-  </si>
-  <si>
-    <t>崩溃统计日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANR in cn.wps.moffice_eng:pushservice
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// Exception from procrank:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.io.IOException: Error running exec(). Command: [procrank] Working Directory: null Environment: null
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  at com.android.server.am.ANRManager$AnrDumpMgr.dumpAnrDebugInfoLocked(SourceFile:964)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  at com.android.server.am.ANRManager$AnrDumpMgr.dumpAnrDebugInfo(SourceFile:832)
-</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -265,51 +238,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$A$1:$A$14</c:f>
+              <c:f>0123456789ABCDEFdetail!$A$1:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,51 +346,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$B$1:$B$14</c:f>
+              <c:f>0123456789ABCDEFdetail!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,57 +454,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$D$1:$D$16</c:f>
+              <c:f>0123456789ABCDEFdetail!$D$1:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,10 +568,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$C$1:$C$14</c:f>
+              <c:f>0123456789ABCDEFdetail!$C$1:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -681,27 +591,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -787,51 +676,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$E$1:$E$14</c:f>
+              <c:f>0123456789ABCDEFdetail!$E$1:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4891</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4892</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4892</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4892</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4892</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4892</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4893</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4894</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4894</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4894</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4894</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,51 +784,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>EAROU8VOSKAM99I7detail!$F$1:$F$14</c:f>
+              <c:f>0123456789ABCDEFdetail!$F$1:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>311</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>311</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>311</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,22 +1470,22 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1"/>
@@ -1661,50 +1508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1720,292 +1524,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>4891</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
-        <v>4892</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
-        <v>4892</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
-        <v>4892</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
-        <v>4892</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2">
-        <v>4892</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2">
-        <v>97</v>
-      </c>
-      <c r="C8" s="2">
-        <v>60</v>
-      </c>
       <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4892</v>
-      </c>
-      <c r="F8" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>59</v>
-      </c>
-      <c r="B9" s="2">
-        <v>98</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
       <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4893</v>
-      </c>
-      <c r="F9" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>98</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4893</v>
-      </c>
-      <c r="F10" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>-0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4894</v>
-      </c>
-      <c r="F11" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4894</v>
-      </c>
-      <c r="F12" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>80</v>
-      </c>
-      <c r="B13" s="2">
-        <v>98</v>
-      </c>
-      <c r="C13" s="2">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4894</v>
-      </c>
-      <c r="F13" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4894</v>
-      </c>
-      <c r="F14" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/报告.xlsx
+++ b/报告.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="0123456789ABCDEFdetail" sheetId="2" r:id="rId2"/>
+    <sheet name="EAROU8VOSKAM99I7detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -74,34 +74,31 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>es651_alps_4.4</t>
-  </si>
-  <si>
-    <t>2核</t>
-  </si>
-  <si>
-    <t>970M</t>
-  </si>
-  <si>
-    <t>1024x600</t>
+    <t>OPPO_OPPO_4.4</t>
+  </si>
+  <si>
+    <t>4核</t>
+  </si>
+  <si>
+    <t>2917M</t>
+  </si>
+  <si>
+    <t>1080x1920</t>
   </si>
   <si>
     <t>wifi</t>
   </si>
   <si>
-    <t>22秒</t>
-  </si>
-  <si>
-    <t>165%</t>
-  </si>
-  <si>
-    <t>120%</t>
-  </si>
-  <si>
-    <t>101M</t>
-  </si>
-  <si>
-    <t>105M</t>
+    <t>3秒</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>168M</t>
+  </si>
+  <si>
+    <t>59M</t>
   </si>
   <si>
     <t>60</t>
@@ -110,7 +107,10 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>1KB</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -219,7 +219,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>cpu使用率</a:t>
+              <a:t>CPU使用率</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -238,30 +238,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$A$1:$A$7</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$A$1:$A$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>-0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,30 +331,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$B$1:$B$7</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,36 +424,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$D$1:$D$9</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$D$1:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +504,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>fps使用情况</a:t>
+              <a:t>FPS使用情况</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -568,29 +523,14 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$C$1:$C$7</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$C$1:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -676,30 +616,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$E$1:$E$7</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$E$1:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82</c:v>
+                  <c:v>6421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,30 +709,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>0123456789ABCDEFdetail!$F$1:$F$7</c:f>
+              <c:f>EAROU8VOSKAM99I7detail!$F$1:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>1234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +779,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -894,13 +804,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -922,15 +832,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -954,13 +864,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -982,15 +892,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1012,15 +922,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1455,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="2">
-        <v>83</v>
-      </c>
-      <c r="N3" s="2">
-        <v>83</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>31</v>
@@ -1508,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,134 +1454,37 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>110</v>
+        <v>-0</v>
       </c>
       <c r="B2" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
-        <v>81</v>
+        <v>6421</v>
       </c>
       <c r="F2" s="2">
-        <v>19</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="2">
-        <v>165</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
       <c r="D3" s="2">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="2">
-        <v>108</v>
-      </c>
-      <c r="B4" s="2">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
       <c r="D4" s="2">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2">
-        <v>82</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="2">
-        <v>116</v>
-      </c>
-      <c r="B5" s="2">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2">
-        <v>82</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="2">
-        <v>158</v>
-      </c>
-      <c r="B6" s="2">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2">
-        <v>82</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="2">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2">
-        <v>92</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2">
-        <v>82</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="2">
-        <v>83</v>
-      </c>
-    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1"/>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
